--- a/eval/tasks/m-006/_golden-solution.xlsx
+++ b/eval/tasks/m-006/_golden-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Code\ib-bench\eval\tasks\m-006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F95B43-CEE3-450B-9889-A7AB8CDDD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF381C-A11A-4D38-8C1F-1D1A3F5FA019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="14431" activeTab="1" xr2:uid="{F5A3AB46-F18D-4A9E-9E3E-5870CB67E543}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F5A3AB46-F18D-4A9E-9E3E-5870CB67E543}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -1538,16 +1538,16 @@
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="10.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.265625" style="1"/>
-    <col min="3" max="3" width="39.265625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.265625" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="39.28515625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
       <c r="D4" s="18" t="s">
         <v>44</v>
@@ -1588,7 +1588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="16" t="s">
         <v>36</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>53.946401200510607</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>42.650782947560735</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>32.533501129463197</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>36.20233875574327</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1682,14 +1682,14 @@
         <v>165.33302403327778</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="6"/>
       <c r="D11" s="71"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="F12" s="72"/>
       <c r="G12" s="72"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>15.564811259537079</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>15.213229702279836</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>6.918528094937475</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>14.528396874438059</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1783,14 +1783,14 @@
         <v>52.224965931192436</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
       <c r="F18" s="74"/>
       <c r="G18" s="74"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="17" t="s">
         <v>37</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="F19" s="75"/>
       <c r="G19" s="75"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>-26.453283845324446</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>-9.3418151038012862</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>2.1493293124326112</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1867,14 +1867,14 @@
         <v>-33.645769636693117</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="73"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="73"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" s="9" t="s">
         <v>43</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="9"/>
       <c r="D26" s="73">
         <f>+D17+D23</f>
@@ -1911,7 +1911,7 @@
         <v>18.579196294499319</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="20" t="s">
         <v>20</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="F27" s="73"/>
       <c r="G27" s="73"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>-4.3133125165505914</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>-3.1403289647901</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
         <v>50</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>-1.5701644823950482</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
         <v>49</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
@@ -2005,14 +2005,14 @@
         <v>-1.9366145442923213</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="76"/>
       <c r="E33" s="76"/>
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" s="20" t="s">
         <v>56</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="F34" s="75"/>
       <c r="G34" s="75"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" s="6" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0.12394985746619835</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C36" s="6" t="s">
         <v>17</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>0.13532534633027038</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="6" t="s">
         <v>38</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>2.154949137259754E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C38" s="6" t="s">
         <v>43</v>
       </c>
@@ -2095,14 +2095,14 @@
         <v>0.42216916693208928</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C39" s="6"/>
       <c r="D39" s="77"/>
       <c r="E39" s="78"/>
       <c r="F39" s="78"/>
       <c r="G39" s="78"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C40" s="17" t="s">
         <v>57</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="F40" s="78"/>
       <c r="G40" s="78"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C41" s="6" t="s">
         <v>17</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0.31587740100054507</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C42" s="6" t="s">
         <v>38</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>-0.20350301963823628</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
@@ -2174,14 +2174,14 @@
         <v>0.11237438136230878</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C44" s="6"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C45" s="19" t="s">
         <v>31</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C46" s="4" t="s">
         <v>1</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>2020E</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C47" s="16" t="s">
         <v>39</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="3:8" ht="11.65" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C48" s="3" t="s">
         <v>48</v>
       </c>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="H48" s="75"/>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="3" t="s">
         <v>32</v>
       </c>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="H49" s="75"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C50" s="3" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="H50" s="75"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="H51" s="75"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="H52" s="75"/>
     </row>
-    <row r="53" spans="3:8" ht="11.65" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C53" s="3" t="s">
         <v>53</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="H53" s="75"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C54" s="3" t="s">
         <v>33</v>
       </c>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="H54" s="75"/>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C55" s="3" t="s">
         <v>24</v>
       </c>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H55" s="75"/>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C56" s="3" t="s">
         <v>25</v>
       </c>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H56" s="75"/>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C57" s="3" t="s">
         <v>58</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H57" s="75"/>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="75"/>
       <c r="E58" s="80"/>
@@ -2385,7 +2385,7 @@
       <c r="G58" s="80"/>
       <c r="H58" s="75"/>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C59" s="16" t="s">
         <v>40</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="G59" s="75"/>
       <c r="H59" s="75"/>
     </row>
-    <row r="60" spans="3:8" ht="11.65" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C60" s="3" t="s">
         <v>52</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H60" s="75"/>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C61" s="3" t="s">
         <v>34</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="H61" s="81"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C62" s="3" t="s">
         <v>35</v>
       </c>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="H62" s="75"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C63" s="3" t="s">
         <v>26</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="H63" s="75"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C64" s="3" t="s">
         <v>51</v>
       </c>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="H64" s="75"/>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C65" s="3" t="s">
         <v>46</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H65" s="75"/>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C66" s="3" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H66" s="75"/>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="s">
         <v>28</v>
       </c>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="H67" s="75"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="s">
         <v>29</v>
       </c>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="H68" s="75"/>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C69" s="3" t="s">
         <v>30</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="H69" s="75"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C70" s="3" t="s">
         <v>58</v>
       </c>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="H70" s="75"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="75"/>
       <c r="E71" s="82"/>
@@ -2579,7 +2579,7 @@
       <c r="G71" s="82"/>
       <c r="H71" s="75"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C72" s="6" t="s">
         <v>41</v>
       </c>
@@ -2595,14 +2595,14 @@
       </c>
       <c r="H72" s="75"/>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C74" s="14" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C75" s="13" t="s">
         <v>54</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C76" s="12" t="s">
         <v>59</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C77" s="13" t="s">
         <v>55</v>
       </c>
@@ -2638,20 +2638,20 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F84" s="2"/>
     </row>
   </sheetData>
@@ -2665,20 +2665,20 @@
   <dimension ref="A1:U188"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomRight" activeCell="L164" sqref="L164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="1.73046875" customWidth="1"/>
-    <col min="3" max="3" width="30.73046875" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" customWidth="1"/>
+    <col min="1" max="2" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>62</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D2" s="24">
         <v>2017</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
         <v>64</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>105</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>106</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" s="28" t="s">
         <v>107</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>117</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>146.39602077369551</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>108</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>3.7733252300000002</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>109</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>110</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>111</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>34.226950515430282</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" s="28" t="s">
         <v>112</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>195.33876076074753</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>122</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>65.61187051867465</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>120</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>3.7733252300000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>123</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>11.147517776699596</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>125</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F19" s="57" t="s">
         <v>124</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>295.87147428612178</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>9</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0.16946551897991768</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>10</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>68</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>237.46460365293279</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" s="39" t="s">
         <v>84</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="40"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C28" s="41" t="s">
         <v>65</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>130.09702627097391</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" s="41" t="s">
         <v>70</v>
       </c>
@@ -3353,19 +3353,19 @@
         <v>6.1539752031492201E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" s="41"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="L30" s="42"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" s="44" t="s">
         <v>81</v>
       </c>
       <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" s="41" t="s">
         <v>65</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>71.165238626215626</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="41" t="s">
         <v>70</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>0.12000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="45" t="s">
         <v>82</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="45" t="s">
         <v>83</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="45"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
@@ -3505,7 +3505,7 @@
       <c r="K36" s="35"/>
       <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="44" t="s">
         <v>85</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="K37" s="36"/>
       <c r="L37" s="43"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="41" t="s">
         <v>65</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>36.20233875574327</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="47" t="s">
         <v>70</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>7</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>9</v>
       </c>
@@ -3670,7 +3670,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>10</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>69</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>69.883967151600928</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>87</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0.29429214323554542</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>-30.666606141983646</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>13</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>-10.829724056740995</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>2.1493293124326112</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>72</v>
       </c>
@@ -3920,7 +3920,7 @@
       <c r="K51" s="31"/>
       <c r="L51" s="31"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>73</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>-39.34700088629203</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="39" t="s">
         <v>88</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="K54" s="28"/>
       <c r="L54" s="40"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="41" t="s">
         <v>12</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>-30.666606141983646</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="41" t="s">
         <v>87</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0.12914179911547799</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="41" t="s">
         <v>70</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="41"/>
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
@@ -4102,7 +4102,7 @@
       <c r="K58" s="35"/>
       <c r="L58" s="46"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="41" t="s">
         <v>13</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>-10.829724056740995</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="41" t="s">
         <v>87</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>4.5605635072118851E-2</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" s="41" t="s">
         <v>70</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="41"/>
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
@@ -4229,7 +4229,7 @@
       <c r="K62" s="35"/>
       <c r="L62" s="46"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" s="55" t="s">
         <v>170</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="K63" s="48"/>
       <c r="L63" s="54"/>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>74</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>30.536966265308898</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>-1.5701644823950482</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>-4.5315850900538219</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>75</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>-10.282333056675469</v>
       </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="39" t="s">
         <v>92</v>
       </c>
@@ -4461,7 +4461,7 @@
       <c r="K72" s="28"/>
       <c r="L72" s="40"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="41" t="s">
         <v>15</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="47" t="s">
         <v>91</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>76</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>20.254633208633429</v>
       </c>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>19</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" s="37" t="s">
         <v>89</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="K79" s="31"/>
       <c r="L79" s="31"/>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="37" t="s">
         <v>90</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C81" s="37" t="s">
         <v>93</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>1.7605080588502131E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>78</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>65</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>7.5097506906820266E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>70</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>8.1300683010228969E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>11</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>5.9985384577966316E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>71</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0.29429214323554548</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>43</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0.10448492656449604</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>71</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0.12859586563873876</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>76</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0.1348792341227012</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>71</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>8.5295378330307522E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>95</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>27.652254726744648</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>22</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>1.4211855663317419</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>96</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>3.0954216581398595</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>23</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>27.815217672200696</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>97</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>42.753969619791228</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>27</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>44.376034761469533</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>98</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>96.653485904426972</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>29</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1.7140693876596234</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>99</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>3.7333390035834495</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>94</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>-16.853700910596718</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>100</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>1.2671936833213522</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>115</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>136</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>157</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>54.597869519772757</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>156</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>54.597869519772757</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>43</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>30.536966265308898</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>100</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>1.2671936833213522</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>102</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>103</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>-3.2407413133813487</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>19</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>104</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>23.895536692062759</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>132</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>125</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>133</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>23.895536692062759</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>135</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>138</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>139</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>140</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>141</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>142</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>16.243281965318111</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>143</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>144</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>145</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>141</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>-0.48729845895954332</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>147</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>50.553582888678477</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>149</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>4.0442866310942787</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>143</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>148</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>54.597869519772757</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>150</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>-4.0442866310942787</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>151</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>-4.5315850900538219</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>102</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>-0.48729845895954332</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>132</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>152</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>7.6522547267446477</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>153</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>27.652254726744648</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>61</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>43</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>159</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>160</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>366.44359518370675</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>161</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>26.94561479302811</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>162</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>339.49798039067866</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>163</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>2.3190383085308546</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>164</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>0.18320932731663908</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>165</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>193.10195961698315</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>61</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H171" s="65" t="s">
         <v>159</v>
       </c>
@@ -6477,7 +6477,7 @@
       <c r="K171" s="65"/>
       <c r="L171" s="65"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G172" s="63">
         <f ca="1">+L167</f>
         <v>0.18320932731663908</v>
@@ -6502,16 +6502,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G173" s="56">
         <v>10</v>
       </c>
       <c r="H173" s="68">
         <f t="dataTable" ref="H173:L177" dt2D="1" dtr="1" r1="M8" r2="D6" ca="1"/>
-        <v>0.20992069307526751</v>
+        <v>0.20992069306375361</v>
       </c>
       <c r="I173" s="67">
-        <v>0.22290898595893216</v>
+        <v>0.22290898595891862</v>
       </c>
       <c r="J173" s="67">
         <v>0.23536784266337829</v>
@@ -6523,7 +6523,7 @@
         <v>0.25887611849269754</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G174" s="62">
         <f>+G173+0.5</f>
         <v>10.5</v>
@@ -6544,7 +6544,7 @@
         <v>0.23717462089273122</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E175" s="26" t="s">
         <v>167</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0.21754051354815784</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G176" s="62">
         <f t="shared" si="127"/>
         <v>11.5</v>
@@ -6589,7 +6589,7 @@
         <v>0.19963915822480871</v>
       </c>
     </row>
-    <row r="177" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G177" s="62">
         <f t="shared" si="127"/>
         <v>12</v>
@@ -6610,7 +6610,7 @@
         <v>0.18320932731663908</v>
       </c>
     </row>
-    <row r="178" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G178" s="62"/>
       <c r="H178" s="36"/>
       <c r="I178" s="36"/>
@@ -6618,7 +6618,7 @@
       <c r="K178" s="36"/>
       <c r="L178" s="36"/>
     </row>
-    <row r="179" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G179" s="69" t="s">
         <v>169</v>
       </c>
@@ -6628,7 +6628,7 @@
       <c r="K179" s="36"/>
       <c r="L179" s="36"/>
     </row>
-    <row r="181" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:12" x14ac:dyDescent="0.25">
       <c r="H181" s="65" t="s">
         <v>168</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="K181" s="64"/>
       <c r="L181" s="64"/>
     </row>
-    <row r="182" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G182" s="63">
         <f ca="1">+L167</f>
         <v>0.18320932731663908</v>
@@ -6662,13 +6662,13 @@
         <v>9.0000000000000024E-2</v>
       </c>
     </row>
-    <row r="183" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G183" s="56">
         <v>10</v>
       </c>
       <c r="H183" s="68">
         <f t="dataTable" ref="H183:L187" dt2D="1" dtr="1" r1="N21" r2="D6" ca="1"/>
-        <v>0.25887611849270975</v>
+        <v>0.25887611849269754</v>
       </c>
       <c r="I183" s="67">
         <v>0.26918328220254462</v>
@@ -6683,7 +6683,7 @@
         <v>0.29920621872406405</v>
       </c>
     </row>
-    <row r="184" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G184" s="62">
         <f>+G183+0.5</f>
         <v>10.5</v>
@@ -6704,7 +6704,7 @@
         <v>0.27680947910582399</v>
       </c>
     </row>
-    <row r="185" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E185" s="26" t="s">
         <v>167</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>0.25654636188050994</v>
       </c>
     </row>
-    <row r="186" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G186" s="62">
         <f t="shared" si="129"/>
         <v>11.5</v>
@@ -6749,7 +6749,7 @@
         <v>0.23807150814547273</v>
       </c>
     </row>
-    <row r="187" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G187" s="62">
         <f t="shared" si="129"/>
         <v>12</v>
@@ -6770,11 +6770,11 @@
         <v>0.22111532145250634</v>
       </c>
     </row>
-    <row r="188" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G188" s="29"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 M12" xr:uid="{F0DBCF94-8BD1-4BDC-8401-A21BA468FF2F}">
       <formula1>"0,1"</formula1>
     </dataValidation>
